--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-打印配置.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-打印配置.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>功能点</t>
   </si>
@@ -143,7 +143,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>所有部分</t>
+    <t>所有部门</t>
   </si>
   <si>
     <t>所有区域</t>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>餐厅活跃度</t>
+  </si>
+  <si>
+    <t>转台</t>
+  </si>
+  <si>
+    <t>催菜</t>
   </si>
   <si>
     <t>关闭</t>
@@ -297,10 +303,22 @@
     <t>所有部门□</t>
   </si>
   <si>
-    <t>部门1□ 部门2□ 部门3□ 部门4□ 部门5□</t>
-  </si>
-  <si>
-    <t>部门6□ 部门7□ 部门8□ 部门9□ 部门10□</t>
+    <t>●部门1 ○部门2 ○部门3 ○部门4 ○部门5</t>
+  </si>
+  <si>
+    <t>○部门6 ○部门7 ○部门8 ○部门9 ○部门10</t>
+  </si>
+  <si>
+    <t>请选择区域：</t>
+  </si>
+  <si>
+    <t>所有区域□</t>
+  </si>
+  <si>
+    <t>区域1□ 区域2□ 区域3□ 区域4□ 区域5□</t>
+  </si>
+  <si>
+    <t>区域6□ 区域7□ 区域8□ 区域9□ 区域10□</t>
   </si>
 </sst>
 </file>
@@ -308,13 +326,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -359,14 +377,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="60"/>
       <name val="宋体"/>
       <family val="7"/>
       <charset val="134"/>
@@ -425,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -540,55 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -781,7 +742,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -793,6 +754,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -811,22 +815,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -850,92 +839,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -952,15 +855,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -991,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1029,7 +923,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,7 +941,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1071,163 +965,145 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,43 +1112,43 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,20 +1512,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="9" style="104"/>
-    <col min="3" max="3" width="50.625" style="103" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="103"/>
+    <col min="1" max="1" width="20.625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="9" style="98"/>
+    <col min="3" max="3" width="50.625" style="97" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" s="102" customFormat="1" customHeight="1">
-      <c r="A1" s="105" t="s">
+    <row r="1" s="96" customFormat="1" customHeight="1">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1657,103 +1533,103 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="104">
+      <c r="B2" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="98">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="104">
+      <c r="B6" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="98">
         <v>2</v>
       </c>
     </row>
     <row r="8" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="104">
+      <c r="B12" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="104">
+      <c r="B13" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="98">
         <v>1</v>
       </c>
     </row>
@@ -1772,10 +1648,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:O35"/>
+  <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1817,13 +1693,13 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-    </row>
-    <row r="4">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1836,13 +1712,13 @@
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5">
       <c r="B5" s="11" t="s">
@@ -1857,13 +1733,13 @@
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" customHeight="1">
       <c r="B6" s="9" t="s">
@@ -1880,25 +1756,25 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="58" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1919,25 +1795,25 @@
         <v>39</v>
       </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="63">
+      <c r="I7" s="59">
         <v>1</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="62">
         <v>1</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1958,25 +1834,25 @@
         <v>47</v>
       </c>
       <c r="H8" s="19"/>
-      <c r="I8" s="63">
+      <c r="I8" s="59">
         <v>2</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="62">
         <v>1</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1997,25 +1873,25 @@
         <v>52</v>
       </c>
       <c r="H9" s="19"/>
-      <c r="I9" s="63">
+      <c r="I9" s="59">
         <v>3</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="62">
         <v>1</v>
       </c>
-      <c r="O9" s="67" t="s">
+      <c r="O9" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2036,25 +1912,25 @@
         <v>59</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="63">
+      <c r="I10" s="59">
         <v>4</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="62">
         <v>1</v>
       </c>
-      <c r="O10" s="67" t="s">
+      <c r="O10" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2075,25 +1951,25 @@
         <v>64</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="63">
+      <c r="I11" s="59">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="64">
-        <v>0</v>
-      </c>
-      <c r="L11" s="64">
-        <v>0</v>
-      </c>
-      <c r="M11" s="65" t="s">
+      <c r="K11" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="62">
         <v>1</v>
       </c>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2114,25 +1990,25 @@
         <v>68</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="68">
+      <c r="I12" s="64">
         <v>6</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="64">
-        <v>0</v>
-      </c>
-      <c r="L12" s="69">
-        <v>0</v>
-      </c>
-      <c r="M12" s="70" t="s">
+      <c r="K12" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="67">
         <v>1</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2149,30 +2025,58 @@
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
+      <c r="I13" s="64">
+        <v>7</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="67">
+        <v>1</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" customHeight="1">
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="76"/>
+      <c r="I14" s="68">
+        <v>8</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="71">
+        <v>1</v>
+      </c>
+      <c r="O14" s="72" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" customHeight="1">
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -2182,187 +2086,215 @@
       <c r="O15" s="26"/>
     </row>
     <row r="16" customHeight="1">
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="79" t="s">
-        <v>72</v>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="73" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" customHeight="1">
-      <c r="B17" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" customHeight="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" customHeight="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" customHeight="1">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="F20" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="M20" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="F20" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="M20" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="75"/>
+      <c r="O20" s="76"/>
     </row>
     <row r="21" customHeight="1">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="F21" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="M21" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="F21" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="M21" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
     </row>
     <row r="22" customHeight="1">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="F22" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="M22" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="F22" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="M22" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" customHeight="1">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="F23" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="M23" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="85"/>
-      <c r="O23" s="86"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="F23" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="M23" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="79"/>
+      <c r="O23" s="80"/>
     </row>
     <row r="24" customHeight="1">
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="F24" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="M24" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="N24" s="88"/>
-      <c r="O24" s="89"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="F24" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="M24" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="82"/>
+      <c r="O24" s="83"/>
     </row>
     <row r="25" customHeight="1">
-      <c r="M25" s="87" t="s">
+      <c r="M25" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="82"/>
+      <c r="O25" s="83"/>
+    </row>
+    <row r="26" customHeight="1">
+      <c r="M26" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="85"/>
+      <c r="O26" s="86"/>
+    </row>
+    <row r="27" customHeight="1">
+      <c r="M27" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="88"/>
+      <c r="O27" s="89"/>
+    </row>
+    <row r="28" customHeight="1">
+      <c r="M28" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="91"/>
+      <c r="O28" s="92"/>
+    </row>
+    <row r="29" customHeight="1">
+      <c r="M29" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="91"/>
+      <c r="O29" s="92"/>
+    </row>
+    <row r="30" customHeight="1">
+      <c r="M30" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="N30" s="94"/>
+      <c r="O30" s="95"/>
+    </row>
+    <row r="31" customHeight="1">
+      <c r="M31" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="85"/>
+      <c r="O31" s="86"/>
+    </row>
+    <row r="32" customHeight="1">
+      <c r="M32" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="91"/>
+      <c r="O32" s="92"/>
+    </row>
+    <row r="33" customHeight="1">
+      <c r="M33" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="91"/>
+      <c r="O33" s="92"/>
+    </row>
+    <row r="34" customHeight="1">
+      <c r="M34" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="94"/>
+      <c r="O34" s="95"/>
+    </row>
+    <row r="35" customHeight="1">
+      <c r="M35" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="85"/>
+      <c r="O35" s="86"/>
+    </row>
+    <row r="36" customHeight="1">
+      <c r="M36" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" s="91"/>
+      <c r="O36" s="92"/>
+    </row>
+    <row r="37" customHeight="1">
+      <c r="M37" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="91"/>
+      <c r="O37" s="92"/>
+    </row>
+    <row r="38" customHeight="1">
+      <c r="M38" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="94"/>
+      <c r="O38" s="95"/>
+    </row>
+    <row r="39" customHeight="1">
+      <c r="M39" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="89"/>
-    </row>
-    <row r="26" customHeight="1">
-      <c r="M26" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92"/>
-    </row>
-    <row r="27" customHeight="1">
-      <c r="M27" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="N27" s="94"/>
-      <c r="O27" s="95"/>
-    </row>
-    <row r="28" customHeight="1">
-      <c r="M28" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="N28" s="97"/>
-      <c r="O28" s="98"/>
-    </row>
-    <row r="29" customHeight="1">
-      <c r="M29" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="N29" s="97"/>
-      <c r="O29" s="98"/>
-    </row>
-    <row r="30" customHeight="1">
-      <c r="M30" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="N30" s="100"/>
-      <c r="O30" s="101"/>
-    </row>
-    <row r="31" customHeight="1">
-      <c r="M31" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="N31" s="91"/>
-      <c r="O31" s="92"/>
-    </row>
-    <row r="32" customHeight="1">
-      <c r="M32" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="N32" s="97"/>
-      <c r="O32" s="98"/>
-    </row>
-    <row r="33" customHeight="1">
-      <c r="M33" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="97"/>
-      <c r="O33" s="98"/>
-    </row>
-    <row r="34" customHeight="1">
-      <c r="M34" s="99" t="s">
-        <v>92</v>
-      </c>
-      <c r="N34" s="100"/>
-      <c r="O34" s="101"/>
-    </row>
-    <row r="35" customHeight="1">
-      <c r="M35" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2376,16 +2308,16 @@
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M39:O39"/>
     <mergeCell ref="B17:D24"/>
     <mergeCell ref="F4:H5"/>
     <mergeCell ref="I4:O5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C38">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C1048534">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:C1048533">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
